--- a/总分-2曲率计算.xlsx
+++ b/总分-2曲率计算.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/同步文件/#pSTEMA/191215成绩/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/同步文件/_BENJAMIN/STEMA_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="-12800" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="选择题曲率" sheetId="8" r:id="rId1"/>
@@ -223,6 +223,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -315,6 +316,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -498,11 +500,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1914560624"/>
-        <c:axId val="-1914089952"/>
+        <c:axId val="706791872"/>
+        <c:axId val="707452656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1914560624"/>
+        <c:axId val="706791872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +548,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1914089952"/>
+        <c:crossAx val="707452656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -554,7 +556,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1914089952"/>
+        <c:axId val="707452656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -613,7 +615,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1914560624"/>
+        <c:crossAx val="706791872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -627,6 +629,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1266,7 +1269,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31B55E3-9A98-E84C-A54E-E8BDFB96286F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D31B55E3-9A98-E84C-A54E-E8BDFB96286F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1739,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13:AB33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
